--- a/Battery cost worksheet.xlsx
+++ b/Battery cost worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbrecha1\Box\rbrecha1 workspace\Eastern Caribbean research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert Brecha\Documents\PyPSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F744A916-ABD3-4121-8399-D1EDC3BB00DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB930E90-2175-4DF8-8DC1-15EC5A80057B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" xr2:uid="{18837C55-A190-43E2-A705-02FA11F10760}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="19190" windowHeight="10790" xr2:uid="{18837C55-A190-43E2-A705-02FA11F10760}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,117 +33,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Robert Brecha</author>
-  </authors>
-  <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{72DA4FC4-0EC5-4BB8-9CC0-ADF54CA80ABB}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robert Brecha:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Lazards LCOS v7 (2022)
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{7CF0AD91-D695-4AC2-AEBE-47B2102824FD}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robert Brecha:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-corresponds to 25 years at a discount rate of 7%
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{971AFDE8-BDD1-4F38-A810-1435EDA5EDA4}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robert Brecha:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Multiplicative factor for cost by 2030s
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{C90F5BA0-23FE-465F-9396-CDA1FFDC54AF}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robert Brecha:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-included for different numbers of months for simulations; for the 100% RE Caribbean paper, we use one full year (12 months)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Lazards current estimates</t>
   </si>
@@ -175,52 +66,38 @@
     <t>$/MW (2020)</t>
   </si>
   <si>
-    <t>CRF</t>
+    <t>decrease by 2035</t>
   </si>
   <si>
-    <t>Months</t>
+    <t>$/MW (2035)</t>
   </si>
   <si>
-    <t>Using Lazards estimates and linearly extrapolating to longer storage times</t>
+    <t>cost per MWh</t>
   </si>
   <si>
-    <t>decrease by 2030s</t>
+    <t>i=</t>
   </si>
   <si>
-    <t>Annuated cost per MW</t>
+    <t>N=</t>
   </si>
   <si>
-    <t>$/MW (2030s)</t>
+    <t>CRF=</t>
+  </si>
+  <si>
+    <t>Annuitized</t>
+  </si>
+  <si>
+    <t>yearly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -235,7 +112,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,17 +129,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,13 +331,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -588,13 +461,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>38</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>119</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -736,13 +609,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>34.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91</c:v>
+                  <c:v>116.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1621,16 +1494,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>106681</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>398779</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>43181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>173355</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>202565</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>109855</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1655,13 +1528,74 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>568325</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="equations_crf">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C9CB0B2-F798-1A0A-A292-EF2BC9B001ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10423525" y="101600"/>
+          <a:ext cx="1762125" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1699,7 +1633,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1805,7 +1739,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1947,29 +1881,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6414FFC5-2C0E-409C-BF4B-A5B88B96E323}">
-  <dimension ref="A2:R24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6414FFC5-2C0E-409C-BF4B-A5B88B96E323}">
+  <dimension ref="B1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.6796875" customWidth="1"/>
+    <col min="8" max="8" width="12.86328125" customWidth="1"/>
+    <col min="10" max="10" width="12.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.75">
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.75">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1977,21 +1918,28 @@
         <v>8</v>
       </c>
       <c r="K2" s="2">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2">
+        <f>$P$1/(1-(1-$P$1)^$P$2)</f>
+        <v>0.10553307850891099</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.75">
+      <c r="J3" t="s">
         <v>10</v>
       </c>
-      <c r="N2">
-        <v>8.5800000000000001E-2</v>
-      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.75">
       <c r="B4">
         <v>100</v>
       </c>
@@ -2001,8 +1949,11 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
+      <c r="N4" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.75">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -2022,18 +1973,13 @@
         <v>9</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="5" t="s">
-        <v>14</v>
+      <c r="N5" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.75">
       <c r="B6">
         <v>100</v>
       </c>
@@ -2041,35 +1987,39 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F6">
         <f>AVERAGE(D6:E6)</f>
-        <v>29</v>
+        <v>34.5</v>
       </c>
       <c r="H6" s="1">
         <f>F6/$B$4*1000000</f>
-        <v>290000</v>
+        <v>345000</v>
       </c>
       <c r="J6" s="1">
         <f>H6*(1-$K$2)</f>
-        <v>95699.999999999985</v>
-      </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="4">
+        <v>172500</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="5">
         <f>J6*$N$2</f>
-        <v>8211.06</v>
+        <v>18204.456042787144</v>
       </c>
       <c r="P6">
         <f>H6/C6</f>
-        <v>290000</v>
+        <v>345000</v>
+      </c>
+      <c r="R6">
+        <f>J6/C6</f>
+        <v>172500</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.75">
       <c r="B7">
         <v>200</v>
       </c>
@@ -2077,35 +2027,39 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E7">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F7">
         <f>AVERAGE(D7:E7)</f>
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" ref="H7:H19" si="0">F7/$B$4*1000000</f>
-        <v>500000</v>
+        <v>590000</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" ref="J7:J19" si="1">H7*(1-$K$2)</f>
-        <v>164999.99999999997</v>
-      </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="4">
-        <f t="shared" ref="N7:N19" si="2">J7*$N$2</f>
-        <v>14156.999999999998</v>
+        <v>295000</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="5">
+        <f>J7*$N$2</f>
+        <v>31132.258160128742</v>
       </c>
       <c r="P7">
-        <f t="shared" ref="P7:P8" si="3">H7/C7</f>
-        <v>250000</v>
+        <f>H7/C7</f>
+        <v>295000</v>
+      </c>
+      <c r="R7">
+        <f>J7/C7</f>
+        <v>147500</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.75">
       <c r="B8">
         <v>400</v>
       </c>
@@ -2113,275 +2067,464 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E8">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="F8">
         <f>AVERAGE(D8:E8)</f>
-        <v>91</v>
+        <v>116.5</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>910000</v>
+        <v>1165000</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="1"/>
-        <v>300299.99999999994</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="4">
-        <f t="shared" si="2"/>
-        <v>25765.739999999994</v>
+        <v>582500</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="5">
+        <f>J8*$N$2</f>
+        <v>61473.018231440648</v>
       </c>
       <c r="P8">
-        <f t="shared" si="3"/>
-        <v>227500</v>
+        <f>H8/C8</f>
+        <v>291250</v>
+      </c>
+      <c r="R8" s="1">
+        <f>J8/C8</f>
+        <v>145625</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.75">
       <c r="H9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="4"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="5"/>
+      <c r="P9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.75">
       <c r="B10">
-        <f t="shared" ref="B10:B19" si="4">$B$4*C10</f>
+        <f t="shared" ref="B10:B19" si="2">$B$4*C10</f>
         <v>600</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" ref="F10:F19" si="5">C10*20.643+8.5</f>
-        <v>132.358</v>
+        <f>C10*27.536+5.75</f>
+        <v>170.96600000000001</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="0"/>
-        <v>1323580</v>
+        <v>1709660.0000000002</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="1"/>
-        <v>436781.39999999997</v>
-      </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="4">
-        <f t="shared" si="2"/>
-        <v>37475.844119999994</v>
+        <v>854830.00000000012</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="5">
+        <f>J10*$N$2</f>
+        <v>90212.841501772389</v>
       </c>
       <c r="P10" s="1">
         <f>J10/C10</f>
-        <v>72796.899999999994</v>
+        <v>142471.66666666669</v>
       </c>
       <c r="Q10" s="1">
         <f>P10*$N$2</f>
-        <v>6245.9740199999997</v>
+        <v>15035.473583628731</v>
       </c>
       <c r="R10" s="1">
         <f>F10/B10*1000000*(1-$K$2)</f>
-        <v>72796.899999999994</v>
+        <v>142471.66666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.75">
       <c r="B11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>800</v>
       </c>
       <c r="C11">
         <v>8</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="5"/>
-        <v>173.64400000000001</v>
+        <f t="shared" ref="F11:F19" si="3">C11*27.536+5.75</f>
+        <v>226.03800000000001</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="0"/>
-        <v>1736440</v>
+        <v>2260380</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="1"/>
-        <v>573025.19999999995</v>
-      </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="4">
+        <v>1130190</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="5">
+        <f t="shared" ref="N11:N22" si="4">J11*$N$2</f>
+        <v>119272.42999998611</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" ref="P11:P19" si="5">J11/C11</f>
+        <v>141273.75</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" ref="Q11:Q19" si="6">P11*$N$2</f>
+        <v>14909.053749998264</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" ref="R11:R19" si="7">F11/B11*1000000*(1-$K$2)</f>
+        <v>141273.75</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.75">
+      <c r="B12">
         <f t="shared" si="2"/>
-        <v>49165.562159999994</v>
-      </c>
-      <c r="P11" s="1">
-        <f t="shared" ref="P11:P19" si="6">J11/C11</f>
-        <v>71628.149999999994</v>
-      </c>
-      <c r="Q11" s="1">
-        <f t="shared" ref="Q11:Q19" si="7">P11*$N$2</f>
-        <v>6145.6952699999993</v>
-      </c>
-      <c r="R11" s="1">
-        <f t="shared" ref="R11:R19" si="8">F11/B11*1000000*(1-$K$2)</f>
-        <v>71628.149999999994</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="5"/>
-        <v>214.93</v>
+        <f t="shared" si="3"/>
+        <v>281.11</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="0"/>
-        <v>2149300</v>
+        <v>2811100</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="1"/>
-        <v>709268.99999999988</v>
-      </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="4">
+        <v>1405550</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="5">
+        <f t="shared" si="4"/>
+        <v>148332.01849819985</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="5"/>
+        <v>140555</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="6"/>
+        <v>14833.201849819983</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="7"/>
+        <v>140555</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.75">
+      <c r="B13">
         <f t="shared" si="2"/>
-        <v>60855.280199999994</v>
-      </c>
-      <c r="P12" s="1">
-        <f t="shared" si="6"/>
-        <v>70926.899999999994</v>
-      </c>
-      <c r="Q12" s="1">
-        <f t="shared" si="7"/>
-        <v>6085.5280199999997</v>
-      </c>
-      <c r="R12" s="1">
-        <f t="shared" si="8"/>
-        <v>70926.899999999994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <f t="shared" si="4"/>
         <v>1200</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="5"/>
-        <v>256.21600000000001</v>
+        <f t="shared" si="3"/>
+        <v>336.18200000000002</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="0"/>
-        <v>2562160</v>
+        <v>3361820.0000000005</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="1"/>
-        <v>845512.79999999993</v>
-      </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="4">
+        <v>1680910.0000000002</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="5">
+        <f t="shared" si="4"/>
+        <v>177391.60699641358</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="5"/>
+        <v>140075.83333333334</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="6"/>
+        <v>14782.633916367799</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="7"/>
+        <v>140075.83333333334</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.75">
+      <c r="B14">
         <f t="shared" si="2"/>
-        <v>72544.998240000001</v>
-      </c>
-      <c r="P13" s="1">
-        <f t="shared" si="6"/>
-        <v>70459.399999999994</v>
-      </c>
-      <c r="Q13" s="1">
-        <f t="shared" si="7"/>
-        <v>6045.4165199999998</v>
-      </c>
-      <c r="R13" s="1">
-        <f t="shared" si="8"/>
-        <v>70459.399999999994</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="J14" s="1"/>
+        <v>2400</v>
+      </c>
+      <c r="C14">
+        <v>24</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="3"/>
+        <v>666.61400000000003</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>6666140</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="1"/>
+        <v>3333070</v>
+      </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
+      <c r="N14" s="5">
+        <f t="shared" si="4"/>
+        <v>351749.13798569591</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="5"/>
+        <v>138877.91666666666</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="6"/>
+        <v>14656.21408273733</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="7"/>
+        <v>138877.91666666669</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="J15" s="1"/>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.75">
+      <c r="B15">
+        <f t="shared" si="2"/>
+        <v>3600</v>
+      </c>
+      <c r="C15">
+        <v>36</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="3"/>
+        <v>997.04600000000005</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>9970460.0000000019</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="1"/>
+        <v>4985230.0000000009</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
+      <c r="N15" s="5">
+        <f t="shared" si="4"/>
+        <v>526106.66897497838</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="5"/>
+        <v>138478.61111111112</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="6"/>
+        <v>14614.074138193844</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="7"/>
+        <v>138478.61111111112</v>
+      </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="J16" s="1"/>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.75">
+      <c r="B16">
+        <f t="shared" si="2"/>
+        <v>4800</v>
+      </c>
+      <c r="C16">
+        <v>48</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="3"/>
+        <v>1327.4780000000001</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>13274780</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="1"/>
+        <v>6637390</v>
+      </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
+      <c r="N16" s="5">
+        <f t="shared" si="4"/>
+        <v>700464.19996426068</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="5"/>
+        <v>138278.95833333334</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="6"/>
+        <v>14593.004165922099</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="7"/>
+        <v>138278.95833333334</v>
+      </c>
     </row>
-    <row r="17" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="F17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="J17" s="1"/>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.75">
+      <c r="B17">
+        <f t="shared" si="2"/>
+        <v>7200</v>
+      </c>
+      <c r="C17">
+        <v>72</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="3"/>
+        <v>1988.3420000000001</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>19883420</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="1"/>
+        <v>9941710</v>
+      </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
+      <c r="N17" s="5">
+        <f t="shared" si="4"/>
+        <v>1049179.2619428255</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="5"/>
+        <v>138079.30555555556</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="6"/>
+        <v>14571.934193650353</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="7"/>
+        <v>138079.30555555556</v>
+      </c>
     </row>
-    <row r="18" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="F18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="J18" s="1"/>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.75">
+      <c r="B18">
+        <f t="shared" si="2"/>
+        <v>9600</v>
+      </c>
+      <c r="C18">
+        <v>96</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="3"/>
+        <v>2649.2060000000001</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>26492060.000000004</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="1"/>
+        <v>13246030.000000002</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
+      <c r="N18" s="5">
+        <f t="shared" si="4"/>
+        <v>1397894.3239213903</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="5"/>
+        <v>137979.47916666669</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" si="6"/>
+        <v>14561.399207514483</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" si="7"/>
+        <v>137979.47916666666</v>
+      </c>
     </row>
-    <row r="19" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="F19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="J19" s="1"/>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.75">
+      <c r="B19">
+        <f t="shared" si="2"/>
+        <v>19200</v>
+      </c>
+      <c r="C19">
+        <v>192</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="3"/>
+        <v>5292.6620000000003</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="0"/>
+        <v>52926620</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="1"/>
+        <v>26463310</v>
+      </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
+      <c r="N19" s="5">
+        <f t="shared" si="4"/>
+        <v>2792754.5718356492</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="5"/>
+        <v>137829.73958333334</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="6"/>
+        <v>14545.596728310673</v>
+      </c>
+      <c r="R19" s="1">
+        <f t="shared" si="7"/>
+        <v>137829.73958333334</v>
+      </c>
     </row>
-    <row r="24" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="O24">
-        <f>700/0.033</f>
-        <v>21212.121212121212</v>
-      </c>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.75">
+      <c r="J21">
+        <v>90000</v>
+      </c>
+      <c r="N21" s="5">
+        <f t="shared" si="4"/>
+        <v>9497.9770658019879</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.75">
+      <c r="J22">
+        <v>1800000</v>
+      </c>
+      <c r="N22" s="5">
+        <f t="shared" si="4"/>
+        <v>189959.54131603977</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.75">
+      <c r="N23" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>